--- a/2016년 수강료 8월/로보로보 수강료.xlsx
+++ b/2016년 수강료 8월/로보로보 수강료.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="555" windowWidth="19440" windowHeight="13500"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>*주야</t>
   </si>
@@ -36,67 +36,84 @@
     <t>*자유수강자</t>
   </si>
   <si>
+    <t>시수</t>
+  </si>
+  <si>
+    <t>수강료</t>
+  </si>
+  <si>
+    <t>수용비</t>
+  </si>
+  <si>
+    <t>계</t>
+  </si>
+  <si>
     <t>김지성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>박성준</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>이윤호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>정현근</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>강병주</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>변시우</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>윤도현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>권범수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>송희근</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>조이택</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>주간</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>*수강료</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>*수용비</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>정우현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="General&quot;학년&quot;"/>
     <numFmt numFmtId="177" formatCode="General&quot;반&quot;"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,8 +123,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="굴림체"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="굴림체"/>
       <family val="3"/>
       <charset val="129"/>
@@ -157,52 +197,81 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -495,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
@@ -506,264 +575,464 @@
     <col min="1" max="1" width="11.25" customWidth="1"/>
     <col min="2" max="2" width="10.25" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="12" style="4" customWidth="1"/>
-    <col min="6" max="6" width="13" style="4" customWidth="1"/>
-    <col min="7" max="7" width="16" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12" style="11" customWidth="1"/>
+    <col min="7" max="7" width="13" style="11" customWidth="1"/>
+    <col min="8" max="8" width="16" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="17">
+        <v>1</v>
+      </c>
+      <c r="C2" s="19">
+        <v>1</v>
+      </c>
+      <c r="D2" s="14">
+        <v>14</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="22">
+        <f>G$24</f>
+        <v>12730</v>
+      </c>
+      <c r="G2" s="21">
+        <f>G$25</f>
+        <v>1020</v>
+      </c>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="17">
+        <v>1</v>
+      </c>
+      <c r="C3" s="19">
+        <v>1</v>
+      </c>
+      <c r="D3" s="14">
+        <v>18</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="22">
+        <f t="shared" ref="F3:F12" si="0">G$24</f>
+        <v>12730</v>
+      </c>
+      <c r="G3" s="21">
+        <f t="shared" ref="G3:G12" si="1">G$25</f>
+        <v>1020</v>
+      </c>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="17">
+        <v>1</v>
+      </c>
+      <c r="C4" s="19">
+        <v>5</v>
+      </c>
+      <c r="D4" s="14">
+        <v>18</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="22">
+        <f t="shared" si="0"/>
+        <v>12730</v>
+      </c>
+      <c r="G4" s="21">
+        <f t="shared" si="1"/>
+        <v>1020</v>
+      </c>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="17">
+        <v>1</v>
+      </c>
+      <c r="C5" s="19">
+        <v>6</v>
+      </c>
+      <c r="D5" s="14">
+        <v>21</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="22">
+        <f t="shared" si="0"/>
+        <v>12730</v>
+      </c>
+      <c r="G5" s="21">
+        <f t="shared" si="1"/>
+        <v>1020</v>
+      </c>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="18">
+        <v>2</v>
+      </c>
+      <c r="C6" s="20">
+        <v>2</v>
+      </c>
+      <c r="D6" s="16">
+        <v>2</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="22">
+        <f t="shared" si="0"/>
+        <v>12730</v>
+      </c>
+      <c r="G6" s="21">
+        <f t="shared" si="1"/>
+        <v>1020</v>
+      </c>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="17">
+        <v>2</v>
+      </c>
+      <c r="C7" s="19">
+        <v>2</v>
+      </c>
+      <c r="D7" s="14">
+        <v>14</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="22">
+        <f t="shared" si="0"/>
+        <v>12730</v>
+      </c>
+      <c r="G7" s="21">
+        <f t="shared" si="1"/>
+        <v>1020</v>
+      </c>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="17">
+        <v>2</v>
+      </c>
+      <c r="C8" s="19">
+        <v>3</v>
+      </c>
+      <c r="D8" s="14">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="E8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="22">
+        <f t="shared" si="0"/>
+        <v>12730</v>
+      </c>
+      <c r="G8" s="21">
+        <f t="shared" si="1"/>
+        <v>1020</v>
+      </c>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="17">
+        <v>2</v>
+      </c>
+      <c r="C9" s="19">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="9">
+      <c r="D9" s="14">
         <v>1</v>
       </c>
-      <c r="C2" s="11">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6">
-        <v>14</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="E9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="22">
+        <f t="shared" si="0"/>
+        <v>12730</v>
+      </c>
+      <c r="G9" s="21">
+        <f t="shared" si="1"/>
+        <v>1020</v>
+      </c>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="17">
+        <v>2</v>
+      </c>
+      <c r="C10" s="19">
+        <v>5</v>
+      </c>
+      <c r="D10" s="14">
+        <v>17</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="22">
+        <f t="shared" si="0"/>
+        <v>12730</v>
+      </c>
+      <c r="G10" s="21">
+        <f t="shared" si="1"/>
+        <v>1020</v>
+      </c>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="17">
+        <v>4</v>
+      </c>
+      <c r="C11" s="19">
+        <v>2</v>
+      </c>
+      <c r="D11" s="14">
+        <v>23</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="22">
+        <f t="shared" si="0"/>
+        <v>12730</v>
+      </c>
+      <c r="G11" s="21">
+        <f t="shared" si="1"/>
+        <v>1020</v>
+      </c>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="17">
+        <v>5</v>
+      </c>
+      <c r="C12" s="19">
         <v>6</v>
       </c>
-      <c r="F2" s="13">
-        <v>1020</v>
-      </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="9">
-        <v>1</v>
-      </c>
-      <c r="C3" s="11">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6">
-        <v>18</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="D12" s="14">
+        <v>20</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="22">
+        <f t="shared" si="0"/>
+        <v>12730</v>
+      </c>
+      <c r="G12" s="21">
+        <f t="shared" si="1"/>
+        <v>1020</v>
+      </c>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="10"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="10"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="10"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="10"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="10"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="10"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="10"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="10"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="C23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="13">
-        <v>1020</v>
-      </c>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="9">
-        <v>1</v>
-      </c>
-      <c r="C4" s="11">
-        <v>5</v>
-      </c>
-      <c r="D4" s="6">
-        <v>18</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="B24" s="2">
+        <v>35000</v>
+      </c>
+      <c r="C24" s="1">
+        <v>4</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="3">
+        <f>B24*C24</f>
+        <v>140000</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3">
+        <f>ROUNDUP(E24/11,-1)</f>
+        <v>12730</v>
+      </c>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="13">
-        <v>1020</v>
-      </c>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="9">
-        <v>1</v>
-      </c>
-      <c r="C5" s="11">
-        <v>6</v>
-      </c>
-      <c r="D5" s="6">
-        <v>21</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="B25" s="3">
+        <f>E24</f>
+        <v>140000</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="E25" s="3">
+        <f>B25*C25</f>
+        <v>11200</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3">
+        <f>ROUNDUP(E25/11,-1)</f>
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="13">
-        <v>1020</v>
-      </c>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="10">
-        <v>2</v>
-      </c>
-      <c r="C6" s="12">
-        <v>2</v>
-      </c>
-      <c r="D6" s="8">
-        <v>2</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="13">
-        <v>1020</v>
-      </c>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="9">
-        <v>2</v>
-      </c>
-      <c r="C7" s="11">
-        <v>2</v>
-      </c>
-      <c r="D7" s="6">
-        <v>14</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="13">
-        <v>1020</v>
-      </c>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="9">
-        <v>2</v>
-      </c>
-      <c r="C8" s="11">
-        <v>3</v>
-      </c>
-      <c r="D8" s="6">
-        <v>17</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="13">
-        <v>1020</v>
-      </c>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="9">
-        <v>2</v>
-      </c>
-      <c r="C9" s="11">
-        <v>5</v>
-      </c>
-      <c r="D9" s="6">
-        <v>1</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="13">
-        <v>1020</v>
-      </c>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="9">
-        <v>2</v>
-      </c>
-      <c r="C10" s="11">
-        <v>5</v>
-      </c>
-      <c r="D10" s="6">
-        <v>17</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="13">
-        <v>1020</v>
-      </c>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="9">
-        <v>4</v>
-      </c>
-      <c r="C11" s="11">
-        <v>2</v>
-      </c>
-      <c r="D11" s="6">
-        <v>23</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="13">
-        <v>1020</v>
-      </c>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="9">
-        <v>5</v>
-      </c>
-      <c r="C12" s="11">
-        <v>6</v>
-      </c>
-      <c r="D12" s="6">
-        <v>20</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="13">
-        <v>1020</v>
-      </c>
-      <c r="G12" s="2"/>
+      <c r="G26" s="3">
+        <f>SUM(G24:G25)</f>
+        <v>13750</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A2:G20">
@@ -771,7 +1040,7 @@
     <sortCondition ref="C2:C20"/>
     <sortCondition ref="D2:D20"/>
   </sortState>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -785,7 +1054,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -798,7 +1067,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/2016년 수강료 8월/로보로보 수강료.xlsx
+++ b/2016년 수강료 8월/로보로보 수강료.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <bookViews>
-    <workbookView xWindow="240" yWindow="555" windowWidth="19440" windowHeight="13500"/>
-  </bookViews>
-  <sheets>
-    <sheet name="로보로보 수강료" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-  </sheets>
-  <calcPr calcId="125725"/>
-</workbook>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:workbookPr codeName="ThisWorkbook"/>
+  <s:bookViews>
+    <s:workbookView activeTab="0"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet name="로보로보 수강료" sheetId="1" r:id="rId1"/>
+    <s:sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <s:sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
+</s:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>*주야</t>
   </si>
@@ -33,59 +33,49 @@
     <t>*성명</t>
   </si>
   <si>
+    <t>*대상금액(수용비)</t>
+  </si>
+  <si>
     <t>*자유수강자</t>
   </si>
   <si>
+    <t>주간</t>
+  </si>
+  <si>
     <t>김지성</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>박성준</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>이윤호</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>정현근</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>자유수강대상자</t>
   </si>
   <si>
     <t>강병주</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>변시우</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>윤도현</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>권범수</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>송희근</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>정우현</t>
   </si>
   <si>
     <t>조이택</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>주간</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>정우현</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>*대상금액(수용비)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -93,57 +83,58 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="General&quot;학년&quot;"/>
-    <numFmt numFmtId="177" formatCode="General&quot;반&quot;"/>
+    <numFmt formatCode="General&quot;학년&quot;" numFmtId="164"/>
+    <numFmt formatCode="General&quot;반&quot;" numFmtId="165"/>
   </numFmts>
   <fonts count="6">
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="굴림체"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color theme="1"/>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="굴림체"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
+      <name val="굴림체"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color rgb="FF000000"/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="굴림체"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="2"/>
+      <color rgb="00000000"/>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="굴림"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color rgb="FF000000"/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="굴림"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
+      <name val="굴림"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color theme="1"/>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="굴림"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -165,70 +156,70 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="표준" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -516,386 +507,402 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.25" customWidth="1"/>
-    <col min="2" max="2" width="10.25" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="12" style="8" customWidth="1"/>
-    <col min="6" max="7" width="16" style="8" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="8" width="11.25"/>
+    <col customWidth="1" max="2" min="2" style="8" width="10.25"/>
+    <col customWidth="1" max="4" min="4" style="8" width="10.5"/>
+    <col customWidth="1" max="5" min="5" style="8" width="12"/>
+    <col customWidth="1" max="7" min="6" style="8" width="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c s="2" r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c s="2" r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c s="2" r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c s="2" r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c s="2" r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c s="2" r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c s="2" r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c s="7" r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c s="15" r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c s="17" r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c s="13" r="D2" t="n">
+        <v>14</v>
+      </c>
+      <c s="12" r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c s="18" r="F2" t="n">
+        <v>1020</v>
+      </c>
+      <c s="6" r="G2" t="n"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c s="7" r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c s="15" r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c s="17" r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c s="13" r="D3" t="n">
         <v>18</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c s="12" r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c s="18" r="F3" t="n">
+        <v>1020</v>
+      </c>
+      <c s="6" r="G3" t="n"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c s="7" r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c s="15" r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c s="17" r="C4" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="7" t="s">
+      <c s="13" r="D4" t="n">
+        <v>18</v>
+      </c>
+      <c s="12" r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c s="18" r="F4" t="n">
+        <v>1020</v>
+      </c>
+      <c s="6" r="G4" t="n"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c s="7" r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c s="15" r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c s="17" r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c s="13" r="D5" t="n">
+        <v>21</v>
+      </c>
+      <c s="12" r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c s="18" r="F5" t="n">
+        <v>1020</v>
+      </c>
+      <c s="6" r="G5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c s="7" r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c s="15" r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c s="17" r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c s="13" r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c s="12" r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c s="18" r="F6" t="n">
+        <v>1020</v>
+      </c>
+      <c s="6" r="G6" t="n"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c s="7" r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c s="15" r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c s="17" r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c s="13" r="D7" t="n">
+        <v>14</v>
+      </c>
+      <c s="12" r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c s="18" r="F7" t="n">
+        <v>1020</v>
+      </c>
+      <c s="6" r="G7" t="n"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c s="7" r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c s="15" r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c s="17" r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c s="13" r="D8" t="n">
+        <v>17</v>
+      </c>
+      <c s="12" r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c s="18" r="F8" t="n">
+        <v>1020</v>
+      </c>
+      <c s="7" r="G8" t="n"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c s="7" r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c s="15" r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c s="17" r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c s="13" r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c s="12" r="E9" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="14">
-        <v>1</v>
-      </c>
-      <c r="C2" s="16">
-        <v>1</v>
-      </c>
-      <c r="D2" s="11">
-        <v>14</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c s="18" r="F9" t="n">
+        <v>1020</v>
+      </c>
+      <c s="6" r="G9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c s="7" r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c s="15" r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c s="17" r="C10" t="n">
+        <v>5</v>
+      </c>
+      <c s="13" r="D10" t="n">
+        <v>17</v>
+      </c>
+      <c s="12" r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c s="18" r="F10" t="n">
+        <v>1020</v>
+      </c>
+      <c s="6" r="G10" t="n"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c s="7" r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c s="15" r="B11" t="n">
+        <v>4</v>
+      </c>
+      <c s="17" r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c s="13" r="D11" t="n">
+        <v>23</v>
+      </c>
+      <c s="12" r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c s="18" r="F11" t="n">
+        <v>1020</v>
+      </c>
+      <c s="6" r="G11" t="n"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c s="7" r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c s="15" r="B12" t="n">
+        <v>5</v>
+      </c>
+      <c s="17" r="C12" t="n">
         <v>6</v>
       </c>
-      <c r="F2" s="18">
-        <v>1020</v>
-      </c>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="14">
-        <v>1</v>
-      </c>
-      <c r="C3" s="16">
-        <v>1</v>
-      </c>
-      <c r="D3" s="11">
-        <v>18</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="18">
-        <v>1020</v>
-      </c>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="14">
-        <v>1</v>
-      </c>
-      <c r="C4" s="16">
-        <v>5</v>
-      </c>
-      <c r="D4" s="11">
-        <v>18</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="18">
-        <v>1020</v>
-      </c>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="14">
-        <v>1</v>
-      </c>
-      <c r="C5" s="16">
-        <v>6</v>
-      </c>
-      <c r="D5" s="11">
-        <v>21</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="18">
-        <v>1020</v>
-      </c>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="15">
-        <v>2</v>
-      </c>
-      <c r="C6" s="17">
-        <v>2</v>
-      </c>
-      <c r="D6" s="13">
-        <v>2</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="18">
-        <v>1020</v>
-      </c>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="14">
-        <v>2</v>
-      </c>
-      <c r="C7" s="16">
-        <v>2</v>
-      </c>
-      <c r="D7" s="11">
-        <v>14</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="18">
-        <v>1020</v>
-      </c>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="14">
-        <v>2</v>
-      </c>
-      <c r="C8" s="16">
-        <v>3</v>
-      </c>
-      <c r="D8" s="11">
-        <v>17</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="18">
-        <v>1020</v>
-      </c>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="14">
-        <v>2</v>
-      </c>
-      <c r="C9" s="16">
-        <v>5</v>
-      </c>
-      <c r="D9" s="11">
-        <v>1</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="18">
-        <v>1020</v>
-      </c>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="14">
-        <v>2</v>
-      </c>
-      <c r="C10" s="16">
-        <v>5</v>
-      </c>
-      <c r="D10" s="11">
-        <v>17</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="18">
-        <v>1020</v>
-      </c>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="14">
-        <v>4</v>
-      </c>
-      <c r="C11" s="16">
-        <v>2</v>
-      </c>
-      <c r="D11" s="11">
-        <v>23</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="18">
-        <v>1020</v>
-      </c>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="14">
-        <v>5</v>
-      </c>
-      <c r="C12" s="16">
-        <v>6</v>
-      </c>
-      <c r="D12" s="11">
+      <c s="13" r="D12" t="n">
         <v>20</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="18">
-        <v>1020</v>
-      </c>
-      <c r="G12" s="6"/>
+      <c s="12" r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c s="18" r="F12" t="n">
+        <v>1020</v>
+      </c>
+      <c s="6" r="G12" t="n"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="7"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="6"/>
+      <c s="7" r="A13" t="n"/>
+      <c s="3" r="B13" t="n"/>
+      <c s="4" r="C13" t="n"/>
+      <c s="7" r="D13" t="n"/>
+      <c s="5" r="E13" t="n"/>
+      <c s="18" r="F13" t="n"/>
+      <c s="6" r="G13" t="n"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="7"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="7"/>
+      <c s="7" r="A14" t="n"/>
+      <c s="3" r="B14" t="n"/>
+      <c s="4" r="C14" t="n"/>
+      <c s="7" r="D14" t="n"/>
+      <c s="5" r="E14" t="n"/>
+      <c s="18" r="F14" t="n"/>
+      <c s="7" r="G14" t="n"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="7"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="6"/>
+      <c s="7" r="A15" t="n"/>
+      <c s="3" r="B15" t="n"/>
+      <c s="4" r="C15" t="n"/>
+      <c s="7" r="D15" t="n"/>
+      <c s="5" r="E15" t="n"/>
+      <c s="18" r="F15" t="n"/>
+      <c s="6" r="G15" t="n"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="7"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="6"/>
+      <c s="7" r="A16" t="n"/>
+      <c s="3" r="B16" t="n"/>
+      <c s="4" r="C16" t="n"/>
+      <c s="7" r="D16" t="n"/>
+      <c s="5" r="E16" t="n"/>
+      <c s="18" r="F16" t="n"/>
+      <c s="6" r="G16" t="n"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="7"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="6"/>
+      <c s="7" r="A17" t="n"/>
+      <c s="3" r="B17" t="n"/>
+      <c s="4" r="C17" t="n"/>
+      <c s="7" r="D17" t="n"/>
+      <c s="5" r="E17" t="n"/>
+      <c s="18" r="F17" t="n"/>
+      <c s="6" r="G17" t="n"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="7"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="6"/>
+      <c s="7" r="A18" t="n"/>
+      <c s="3" r="B18" t="n"/>
+      <c s="4" r="C18" t="n"/>
+      <c s="7" r="D18" t="n"/>
+      <c s="5" r="E18" t="n"/>
+      <c s="18" r="F18" t="n"/>
+      <c s="6" r="G18" t="n"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="7"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="6"/>
+      <c s="7" r="A19" t="n"/>
+      <c s="3" r="B19" t="n"/>
+      <c s="4" r="C19" t="n"/>
+      <c s="7" r="D19" t="n"/>
+      <c s="5" r="E19" t="n"/>
+      <c s="18" r="F19" t="n"/>
+      <c s="6" r="G19" t="n"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="7"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
+      <c s="7" r="A20" t="n"/>
+      <c s="3" r="B20" t="n"/>
+      <c s="4" r="C20" t="n"/>
+      <c s="7" r="D20" t="n"/>
+      <c s="5" r="E20" t="n"/>
+      <c s="7" r="F20" t="n"/>
+      <c s="7" r="G20" t="n"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="E21" s="1"/>
+      <c s="1" r="E21" t="n"/>
     </row>
   </sheetData>
-  <sortState ref="A2:G20">
-    <sortCondition ref="B2:B20"/>
-    <sortCondition ref="C2:C20"/>
-    <sortCondition ref="D2:D20"/>
-  </sortState>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967292" orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
-  <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1"/>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
-  <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1"/>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
 </file>